--- a/Hill Climbing/Hill Climbing experiments.xlsx
+++ b/Hill Climbing/Hill Climbing experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="23760" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Test N°</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>27577.35</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>MAX/MIN</t>
+  </si>
+  <si>
+    <t>MAX tot value</t>
+  </si>
+  <si>
+    <t>MIN gaps</t>
   </si>
 </sst>
 </file>
@@ -238,6 +250,80 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Parcel type used: A,B,C (Random order).  Mutation rate: 1.  Number of neighbours: 100  Allow rotations: NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="2311400"/>
+          <a:ext cx="8331200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Climbing Experiment N°2	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Parcel type used: A,B,C (Random order).  Mutation rate: 1.  Number of neighbours: 100  Allow rotations: YES</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -589,136 +675,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -744,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1296,7 +1428,7 @@
         <v>105.35</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:H36" si="2">AVERAGE(D16:D35)</f>
+        <f t="shared" ref="D36:G36" si="2">AVERAGE(D16:D35)</f>
         <v>59.55</v>
       </c>
       <c r="E36" s="4">
@@ -1342,6 +1474,297 @@
         <v>17</v>
       </c>
       <c r="H37" s="2">
+        <v>15613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>212</v>
+      </c>
+      <c r="C43">
+        <v>130</v>
+      </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>68829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>A43+1</f>
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>211</v>
+      </c>
+      <c r="C44">
+        <v>146</v>
+      </c>
+      <c r="D44">
+        <v>53</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>12282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ref="A45:A62" si="3">A44+1</f>
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>214</v>
+      </c>
+      <c r="C45">
+        <v>130</v>
+      </c>
+      <c r="D45">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>213</v>
+      </c>
+      <c r="C46">
+        <v>116</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>518842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4">
+        <f>AVERAGE(B43:B62)</f>
+        <v>212.5</v>
+      </c>
+      <c r="C63" s="4">
+        <f>AVERAGE(C43:C62)</f>
+        <v>130.5</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" ref="D63" si="4">AVERAGE(D43:D62)</f>
+        <v>53.5</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" ref="E63" si="5">AVERAGE(E43:E62)</f>
+        <v>18</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" ref="F63" si="6">AVERAGE(F43:F62)</f>
+        <v>19</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" ref="G63" si="7">AVERAGE(G43:G62)</f>
+        <v>16.5</v>
+      </c>
+      <c r="H63" s="4">
+        <f>AVERAGE(H43:H62)</f>
+        <v>152113.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="2">
+        <f>MAX(B43:B62)</f>
+        <v>214</v>
+      </c>
+      <c r="C64" s="2">
+        <f>MIN(C43:C62)</f>
+        <v>116</v>
+      </c>
+      <c r="D64" s="2">
+        <f>MAX(D43:D62)</f>
+        <v>55</v>
+      </c>
+      <c r="E64" s="2">
+        <v>32</v>
+      </c>
+      <c r="F64" s="2">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2">
         <v>15613</v>
       </c>
     </row>

--- a/Hill Climbing/Hill Climbing experiments.xlsx
+++ b/Hill Climbing/Hill Climbing experiments.xlsx
@@ -678,7 +678,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1615,27 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="B47">
+        <v>204</v>
+      </c>
+      <c r="C47">
+        <v>180</v>
+      </c>
+      <c r="D47">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>290504</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -1712,31 +1733,31 @@
       </c>
       <c r="B63" s="4">
         <f>AVERAGE(B43:B62)</f>
-        <v>212.5</v>
+        <v>210.8</v>
       </c>
       <c r="C63" s="4">
         <f>AVERAGE(C43:C62)</f>
-        <v>130.5</v>
+        <v>140.4</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ref="D63" si="4">AVERAGE(D43:D62)</f>
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ref="E63" si="5">AVERAGE(E43:E62)</f>
-        <v>18</v>
+        <v>19.2</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ref="F63" si="6">AVERAGE(F43:F62)</f>
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" ref="G63" si="7">AVERAGE(G43:G62)</f>
-        <v>16.5</v>
+        <v>15.6</v>
       </c>
       <c r="H63" s="4">
         <f>AVERAGE(H43:H62)</f>
-        <v>152113.5</v>
+        <v>179791.6</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">

--- a/Hill Climbing/Hill Climbing experiments.xlsx
+++ b/Hill Climbing/Hill Climbing experiments.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolagheza/Dropbox/DKE/Period 3/PP3/Hill Climbing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Hill Climbing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="11595" yWindow="465" windowWidth="13995" windowHeight="14715" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -168,13 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -677,23 +680,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -757,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -778,7 +781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
@@ -787,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -796,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -805,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -814,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -823,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -832,7 +835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -841,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -850,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -876,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -902,7 +905,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A16+1</f>
         <v>2</v>
@@ -929,7 +932,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:A35" si="1">A17+1</f>
         <v>3</v>
@@ -956,7 +959,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -983,7 +986,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1010,7 +1013,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1037,7 +1040,7 @@
         <v>17244</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1064,7 +1067,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1091,7 +1094,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1118,7 +1121,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1145,7 +1148,7 @@
         <v>30934</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1172,7 +1175,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1199,7 +1202,7 @@
         <v>131075</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1226,7 +1229,7 @@
         <v>26756</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1253,7 +1256,7 @@
         <v>17299</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1280,7 +1283,7 @@
         <v>19286</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1307,7 +1310,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1334,7 +1337,7 @@
         <v>129570</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1361,7 +1364,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1388,7 +1391,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1415,7 +1418,7 @@
         <v>15876</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>27577.35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>68829</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>A43+1</f>
         <v>2</v>
@@ -1556,7 +1559,7 @@
         <v>12282</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45:A62" si="3">A44+1</f>
         <v>3</v>
@@ -1583,7 +1586,7 @@
         <v>8501</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1610,7 +1613,7 @@
         <v>518842</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1637,97 +1640,97 @@
         <v>290504</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>179791.6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -1803,14 +1806,14 @@
       <selection activeCell="A27" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+1</f>
         <v>2</v>
@@ -1889,7 +1892,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A24" si="0">A6+1</f>
         <v>3</v>
@@ -1916,7 +1919,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1943,7 +1946,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1970,7 +1973,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1997,7 +2000,7 @@
         <v>17244</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2024,7 +2027,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2051,7 +2054,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2078,7 +2081,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2105,7 +2108,7 @@
         <v>30934</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2132,7 +2135,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2159,7 +2162,7 @@
         <v>131075</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2186,7 +2189,7 @@
         <v>26756</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2213,7 +2216,7 @@
         <v>17299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2240,7 +2243,7 @@
         <v>19286</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2267,7 +2270,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2294,7 +2297,7 @@
         <v>129570</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2321,7 +2324,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2348,7 +2351,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2375,7 +2378,7 @@
         <v>15876</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>27577.35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>

--- a/Hill Climbing/Hill Climbing experiments.xlsx
+++ b/Hill Climbing/Hill Climbing experiments.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Hill Climbing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolagheza/Dropbox/DKE/Period 3/PP3/Hill Climbing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="465" windowWidth="13995" windowHeight="14715" tabRatio="500"/>
+    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Test N°</t>
   </si>
@@ -87,16 +87,7 @@
     <t>Parcel placed</t>
   </si>
   <si>
-    <t>220.85</t>
-  </si>
-  <si>
     <t>Total value (Average)</t>
-  </si>
-  <si>
-    <t>105.35</t>
-  </si>
-  <si>
-    <t>27577.35</t>
   </si>
   <si>
     <t>yes</t>
@@ -109,6 +100,9 @@
   </si>
   <si>
     <t>MIN gaps</t>
+  </si>
+  <si>
+    <t>A,C</t>
   </si>
 </sst>
 </file>
@@ -168,16 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -327,6 +318,80 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Parcel type used: A,B,C (Random order).  Mutation rate: 1.  Number of neighbours: 100  Allow rotations: YES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="7797800"/>
+          <a:ext cx="7340600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Climbing Experiment N°3	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Parcel type used: A,C (Random order).  Mutation rate: 1.  Number of neighbours: 100  Allow rotations: NO</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -678,30 +743,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -716,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -728,12 +795,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -747,32 +814,32 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+      <c r="G2">
+        <v>220.85</v>
+      </c>
+      <c r="H2">
+        <v>105.35</v>
       </c>
       <c r="I2">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>27577.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -780,80 +847,104 @@
       <c r="F3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>209.05</v>
+      </c>
+      <c r="H3">
+        <v>153.44999999999999</v>
+      </c>
+      <c r="I3">
+        <v>53.7</v>
+      </c>
+      <c r="J3">
+        <v>109135.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -879,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -905,7 +996,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>A16+1</f>
         <v>2</v>
@@ -932,7 +1023,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ref="A18:A35" si="1">A17+1</f>
         <v>3</v>
@@ -959,7 +1050,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -986,7 +1077,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1013,7 +1104,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1040,7 +1131,7 @@
         <v>17244</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1067,7 +1158,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1094,7 +1185,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1121,7 +1212,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1148,7 +1239,7 @@
         <v>30934</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1175,7 +1266,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1202,7 +1293,7 @@
         <v>131075</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1229,7 +1320,7 @@
         <v>26756</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1256,7 +1347,7 @@
         <v>17299</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1283,7 +1374,7 @@
         <v>19286</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1310,7 +1401,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1337,7 +1428,7 @@
         <v>129570</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1364,7 +1455,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1391,7 +1482,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1418,7 +1509,7 @@
         <v>15876</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1542,7 @@
         <v>27577.35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1571,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1532,7 +1623,7 @@
         <v>68829</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>A43+1</f>
         <v>2</v>
@@ -1559,7 +1650,7 @@
         <v>12282</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ref="A45:A62" si="3">A44+1</f>
         <v>3</v>
@@ -1586,7 +1677,7 @@
         <v>8501</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1613,7 +1704,7 @@
         <v>518842</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1640,156 +1731,783 @@
         <v>290504</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>209</v>
+      </c>
+      <c r="C48">
+        <v>142</v>
+      </c>
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>68929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>211</v>
+      </c>
+      <c r="C49">
+        <v>147</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>113601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>214</v>
+      </c>
+      <c r="C50">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>209</v>
+      </c>
+      <c r="C51">
+        <v>149</v>
+      </c>
+      <c r="D51">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>36932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>213</v>
+      </c>
+      <c r="C52">
+        <v>152</v>
+      </c>
+      <c r="D52">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>27638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>215</v>
+      </c>
+      <c r="C53">
+        <v>130</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>23</v>
+      </c>
+      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>175980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>208</v>
+      </c>
+      <c r="C54">
+        <v>171</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>27</v>
+      </c>
+      <c r="F54">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>16008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>214</v>
+      </c>
+      <c r="C55">
+        <v>141</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>27</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>17</v>
+      </c>
+      <c r="H55">
+        <v>37650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>221</v>
+      </c>
+      <c r="C56">
+        <v>94</v>
+      </c>
+      <c r="D56">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56">
+        <v>29122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>198</v>
+      </c>
+      <c r="C57">
+        <v>222</v>
+      </c>
+      <c r="D57">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>105132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>198</v>
+      </c>
+      <c r="C58">
+        <v>201</v>
+      </c>
+      <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>39181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>215</v>
+      </c>
+      <c r="C59">
+        <v>109</v>
+      </c>
+      <c r="D59">
+        <v>53</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <v>23834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>201</v>
+      </c>
+      <c r="C60">
+        <v>190</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60">
+        <v>21651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>204</v>
+      </c>
+      <c r="C61">
+        <v>174</v>
+      </c>
+      <c r="D61">
+        <v>52</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>560602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>197</v>
+      </c>
+      <c r="C62">
+        <v>207</v>
+      </c>
+      <c r="D62">
+        <v>51</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>22</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>19357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="4">
         <f>AVERAGE(B43:B62)</f>
-        <v>210.8</v>
+        <v>209.05</v>
       </c>
       <c r="C63" s="4">
         <f>AVERAGE(C43:C62)</f>
-        <v>140.4</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ref="D63" si="4">AVERAGE(D43:D62)</f>
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ref="E63" si="5">AVERAGE(E43:E62)</f>
-        <v>19.2</v>
+        <v>21.1</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ref="F63" si="6">AVERAGE(F43:F62)</f>
-        <v>18.8</v>
+        <v>17.45</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" ref="G63" si="7">AVERAGE(G43:G62)</f>
-        <v>15.6</v>
+        <v>15.25</v>
       </c>
       <c r="H63" s="4">
         <f>AVERAGE(H43:H62)</f>
-        <v>179791.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109135.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="2">
         <f>MAX(B43:B62)</f>
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2">
         <f>MIN(C43:C62)</f>
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D64" s="2">
         <f>MAX(D43:D62)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E64" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2">
+        <v>16</v>
+      </c>
+      <c r="G64" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2">
+        <v>29122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>220</v>
+      </c>
+      <c r="C70">
+        <v>140</v>
+      </c>
+      <c r="D70">
+        <v>60</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>175898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>A70+1</f>
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>216</v>
+      </c>
+      <c r="C71">
+        <v>161</v>
+      </c>
+      <c r="D71">
+        <v>58</v>
+      </c>
+      <c r="E71">
+        <v>37</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>21</v>
+      </c>
+      <c r="H71">
+        <v>24124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" ref="A72:A89" si="8">A71+1</f>
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>219</v>
+      </c>
+      <c r="C72">
+        <v>145</v>
+      </c>
+      <c r="D72">
+        <v>59</v>
+      </c>
+      <c r="E72">
+        <v>38</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>21</v>
+      </c>
+      <c r="H72">
+        <v>220608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>220</v>
+      </c>
+      <c r="C73">
+        <v>140</v>
+      </c>
+      <c r="D73">
+        <v>60</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>219</v>
+      </c>
+      <c r="C74">
+        <v>145</v>
+      </c>
+      <c r="D74">
+        <v>59</v>
+      </c>
+      <c r="E74">
+        <v>38</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>21</v>
+      </c>
+      <c r="H74">
+        <v>116759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="H64" s="2">
-        <v>15613</v>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="4">
+        <f>AVERAGE(B70:B89)</f>
+        <v>218.8</v>
+      </c>
+      <c r="C90" s="4">
+        <f>AVERAGE(C70:C89)</f>
+        <v>146.19999999999999</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" ref="D90" si="9">AVERAGE(D70:D89)</f>
+        <v>59.2</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" ref="E90" si="10">AVERAGE(E70:E89)</f>
+        <v>38.6</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" ref="F90" si="11">AVERAGE(F70:F89)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" ref="G90" si="12">AVERAGE(G70:G89)</f>
+        <v>20.6</v>
+      </c>
+      <c r="H90" s="4">
+        <f>AVERAGE(H70:H89)</f>
+        <v>116506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="2">
+        <f>MAX(B70:B89)</f>
+        <v>220</v>
+      </c>
+      <c r="C91" s="2">
+        <f>MIN(C70:C89)</f>
+        <v>140</v>
+      </c>
+      <c r="D91" s="2">
+        <f>MAX(D70:D89)</f>
+        <v>60</v>
+      </c>
+      <c r="E91" s="2">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2">
+        <v>16</v>
+      </c>
+      <c r="G91" s="2">
+        <v>14</v>
+      </c>
+      <c r="H91" s="2">
+        <v>29122</v>
       </c>
     </row>
   </sheetData>
@@ -1806,14 +2524,14 @@
       <selection activeCell="A27" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1839,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1865,7 +2583,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5+1</f>
         <v>2</v>
@@ -1892,7 +2610,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A24" si="0">A6+1</f>
         <v>3</v>
@@ -1919,7 +2637,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1946,7 +2664,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1973,7 +2691,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2000,7 +2718,7 @@
         <v>17244</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2027,7 +2745,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2054,7 +2772,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2081,7 +2799,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2108,7 +2826,7 @@
         <v>30934</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2135,7 +2853,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2162,7 +2880,7 @@
         <v>131075</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2189,7 +2907,7 @@
         <v>26756</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2216,7 +2934,7 @@
         <v>17299</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2243,7 +2961,7 @@
         <v>19286</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2270,7 +2988,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2297,7 +3015,7 @@
         <v>129570</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2324,7 +3042,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2351,7 +3069,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2378,7 +3096,7 @@
         <v>15876</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +3129,7 @@
         <v>27577.35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>

--- a/Hill Climbing/Hill Climbing experiments.xlsx
+++ b/Hill Climbing/Hill Climbing experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="460" windowWidth="14000" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2363,6 +2363,27 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="B75">
+        <v>221</v>
+      </c>
+      <c r="C75">
+        <v>134</v>
+      </c>
+      <c r="D75">
+        <v>59</v>
+      </c>
+      <c r="E75">
+        <v>37</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>22</v>
+      </c>
+      <c r="H75">
+        <v>31242</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -2454,19 +2475,19 @@
       </c>
       <c r="B90" s="4">
         <f>AVERAGE(B70:B89)</f>
-        <v>218.8</v>
+        <v>219.16666666666666</v>
       </c>
       <c r="C90" s="4">
         <f>AVERAGE(C70:C89)</f>
-        <v>146.19999999999999</v>
+        <v>144.16666666666666</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ref="D90" si="9">AVERAGE(D70:D89)</f>
-        <v>59.2</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" ref="E90" si="10">AVERAGE(E70:E89)</f>
-        <v>38.6</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" ref="F90" si="11">AVERAGE(F70:F89)</f>
@@ -2474,11 +2495,11 @@
       </c>
       <c r="G90" s="4">
         <f t="shared" ref="G90" si="12">AVERAGE(G70:G89)</f>
-        <v>20.6</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="H90" s="4">
         <f>AVERAGE(H70:H89)</f>
-        <v>116506</v>
+        <v>102295.33333333333</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2487,11 +2508,11 @@
       </c>
       <c r="B91" s="2">
         <f>MAX(B70:B89)</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" s="2">
         <f>MIN(C70:C89)</f>
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D91" s="2">
         <f>MAX(D70:D89)</f>
